--- a/biology/Botanique/Clitocybe_(genre)/Clitocybe_(genre).xlsx
+++ b/biology/Botanique/Clitocybe_(genre)/Clitocybe_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clitocybe est à la fois le nom latin et le nom français, de genre masculin, adopté par les mycologues du XIXᵉ siècle par transcription à l'identique du nom savant. C'est un genre de champignons basidiomycètes de la vaste famille des Tricholomataceae, très hétérogène. 
 </t>
@@ -511,10 +523,12 @@
           <t>Historique et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Clitocybe (Fries) Staude comprend des espèces montrant typiquement un chapeau infundibuliforme (omphaloïde) et des lames décurrentes. Il fut assigné initialement par Fries à une Tribu du « Super-genere » Agaricus[1] au contenu hétéroclite, qu'il remodèle à deux reprises en 1825, en définissant les Clitocybes comme des champignons « à chapeau convexe » (!)[2], et la même année[3], classe plusieurs espèces comme Omphalia sur la base de leur chapeau concave.
-Le terme Clitocybe dérive du grec ancien κλίτος, klítos (« pente, côte, colline »), adj. Klitys,-yos « pentu, penché, retombant » + κύϐη, Kybé « tête  » (en latin = pilus), pour son chapeau présentant souvent une forme concave avec une déclivité centrale à l'état adulte[4],[5]. Même interprétation sur les sites anglophones (sloping head = funnel shaped), chapeau pentu, creusé en entonnoir[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Clitocybe (Fries) Staude comprend des espèces montrant typiquement un chapeau infundibuliforme (omphaloïde) et des lames décurrentes. Il fut assigné initialement par Fries à une Tribu du « Super-genere » Agaricus au contenu hétéroclite, qu'il remodèle à deux reprises en 1825, en définissant les Clitocybes comme des champignons « à chapeau convexe » (!), et la même année, classe plusieurs espèces comme Omphalia sur la base de leur chapeau concave.
+Le terme Clitocybe dérive du grec ancien κλίτος, klítos (« pente, côte, colline »), adj. Klitys,-yos « pentu, penché, retombant » + κύϐη, Kybé « tête  » (en latin = pilus), pour son chapeau présentant souvent une forme concave avec une déclivité centrale à l'état adulte,. Même interprétation sur les sites anglophones (sloping head = funnel shaped), chapeau pentu, creusé en entonnoir.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de l'éclatement du genre dû aux progrès de la cladistique, un grand nombre d'espèces ont été recombinées dans de nouveaux genres, excepté une poignée de taxons appartenant toujours au genre Clitocybe emendé.
 Ce sont des champignons saprotrophes qui poussent sur le bois marcescent dans les forêts ou les prés.  
 Tricholomoïdes + - charnus. Lames d’épaisseur normales, décurrentes adnées ou échancrées. Revêtement non hyménodermique.
 Silhouette omphaloïde, clitocyboïde à tricholomoïde. Quelques collybioïdes à spores amyloïdes, basides sidérophiles.
-Sporée blanche ou crème à ocracé ou rosâtre terne[7].
+Sporée blanche ou crème à ocracé ou rosâtre terne.
 Chapeau souvent ombiliqué, sec ou hygrophane, pruineux à squameux. Marge lisse ou striée par transparence. Lames décurrentes.  Pied épais, plein, lisse et fibrilleux, à mycélium basal (rizomorphes),  Les spores lisses, non amyloïdes, parfois cyanophiles.  Beaucoup d'espèces sont toxiques : syndromes  muscarinique, coprinien, gastro-intestinal, hémolytique ou acromélalgien. Les espèces comestibles sont rares. 
 Le genre a longtemps été un fourre-tout, on parlait de « clitocybe orangé » pour une espèce maintenant reclassée dans les Boletales, de « clitocybe de l'olivier », de « clitocybes laqués » pour des laccaires, etc. Son éclatement a donné naissance à quelques « nouveaux » genres : Infundibulicybe issu de la famille des Tricholomataceae, Clitocybula, Lepista, Omphalia, etc. et lui-même ne compte plus qu'un petit nombre d'espèces. Ainsi, de nombreux champignons encore appelés en français « clitocybes » sont désormais classés (provisoirement sans doute) dans d'autres genres et familles.
 [à recycler] : Le nom est tiré du grec kubê, « tête » (qui a donné « gouverner » ou « cybernétique ») et clitos, « pente ». Il s'agit donc de « têtes penchées » ou de « têtes à pentes », en référence à l'inclinaison caractéristique de leurs lames [Cette interprétation intéressante et complémentaire gagnerait à être référencée].
@@ -581,7 +597,9 @@
           <t>Classification phylogénétique du genre Clitocybe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricales,
@@ -602,8 +620,43 @@
 Clitocybe rivulosa
 Tricholomateae
 Entolomataceae
-Lyophyllaceae
-Liste des espèces du genre Clitocybe
+Lyophyllaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clitocybe_(genre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitocybe_(genre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique du genre Clitocybe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces du genre Clitocybe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clitocybe acromelalga
 Clitocybe agrestis
 Clitocybe albida
@@ -644,7 +697,7 @@
 Clitocybe lituus
 Clitocybe marginella
 Clitocybe martiorum
-Clitocybe maxima[8]
+Clitocybe maxima
 Clitocybe metachroa
 Clitocybe nebularis
 Clitocybe odora
